--- a/biology/Botanique/Echium_italicum/Echium_italicum.xlsx
+++ b/biology/Botanique/Echium_italicum/Echium_italicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  Vipérine d'Italie, Echium italicum est une espèce de plante bisannuelle,  de la famille des Boraginaceae originaire de Méditerranée.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Echium biebersteinii Lacaita</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante bisannuelle, poilue ; à tige centrale très ramifiée et forme pyramidale caractéristique.
 Feuilles basales grandes et lancéolées.
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Endroits secs, friches, au bord des chemins.</t>
         </is>
@@ -603,10 +621,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vingt-deux composants ont été identifiés dans cette huile. Les principaux constituants de l'huile essentielle étaient l'hexadécanol (27,1%) et la pulegone (8,8%).
-L'huile d'E. Italicum a présenté une activité antimicrobienne dépendante de la concentration sur tous les micro-organismes testés. (Bacillus subtilis, Staphylococcus aureus, Escherichia coli, Salmonella typhi, Pseudomonas aeruginosa, Aspergilus niger et Candida albicans) [1]
+L'huile d'E. Italicum a présenté une activité antimicrobienne dépendante de la concentration sur tous les micro-organismes testés. (Bacillus subtilis, Staphylococcus aureus, Escherichia coli, Salmonella typhi, Pseudomonas aeruginosa, Aspergilus niger et Candida albicans) 
 </t>
         </is>
       </c>
